--- a/CSP/Docs/data.xlsx
+++ b/CSP/Docs/data.xlsx
@@ -2,19 +2,37 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="Ten_skoroszyt" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Scripts\SI\CSP\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A626FCA1-3B6A-4440-A251-6FAA92D479F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA59704-E6DE-4B6F-A7DC-51FA35A551F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4D7BBDC7-85B8-4DAD-A4C1-4395A5A4DF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Arkusz1!$C$30:$L$30</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Arkusz1!$C$38:$L$38</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Arkusz1!$C$46:$L$46</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Arkusz1!$C$5:$L$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Arkusz1!$C$30:$L$30</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Arkusz1!$C$38:$L$38</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Arkusz1!$C$46:$L$46</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Arkusz1!$C$5:$L$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Arkusz1!$C$46:$L$46</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Arkusz1!$C$5:$L$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Arkusz1!$C$30:$L$30</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Arkusz1!$C$38:$L$38</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Arkusz1!$C$46:$L$46</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Arkusz1!$C$5:$L$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Arkusz1!$C$30:$L$30</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Arkusz1!$C$38:$L$38</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>First solution nodes</t>
   </si>
@@ -61,6 +79,15 @@
   </si>
   <si>
     <t>Map Coloring CSP</t>
+  </si>
+  <si>
+    <t>Forward checking - default variable selector</t>
+  </si>
+  <si>
+    <t>Forward checking - min domain variable selector</t>
+  </si>
+  <si>
+    <t>Forward checking - max domain variable selector</t>
   </si>
 </sst>
 </file>
@@ -117,11 +144,11 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,6 +507,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba punktów w problemie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -545,6 +627,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba odwiedzonych węzłów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1001,6 +1138,100 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>Liczba punktów w problemie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1066,6 +1297,1402 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas wyszukiwania [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841542751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> liczby odwiedzonych węzłów od N</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>przy wyszukiwaniu wszystkich rozwiązań</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>default</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$30:$L$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3260</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3796</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56884</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>498324</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8BB-4BD3-9EC5-A0E90EA60D35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>min domain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$38:$L$38</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163840</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12376</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>339064</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5832-4A8B-8B28-C386C42CA1E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>max domain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$46:$L$46</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25700</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>268306</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7239540</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7228954</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46399187</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5832-4A8B-8B28-C386C42CA1E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1841542751"/>
+        <c:axId val="1841543583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1841542751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba punktów w problemie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841543583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1841543583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba odwiedzonych węzłów</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841542751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Wykres</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> czasu wyszukiwania rozwiązań od N</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t>przy wyszukiwaniu wszystkich rozwiązań</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>default</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$C$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$31:$L$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D8BB-4BD3-9EC5-A0E90EA60D35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>min domain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$39:$L$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5832-4A8B-8B28-C386C42CA1E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>max domain</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$47:$L$47</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.89</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.36000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5832-4A8B-8B28-C386C42CA1E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1841542751"/>
+        <c:axId val="1841543583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1841542751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Liczba punktów w problemie</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1841543583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1841543583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> wyszukiwania [s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1264,6 +2891,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2270,20 +3977,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>565898</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>45941</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>106456</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1117</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1445560</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22410</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2310,16 +5023,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>84045</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>54911</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>128868</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>189382</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2341,6 +5054,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>131105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>354107</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14C6377-C7C2-4618-BEE3-DA3BCD6A2973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488576</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>70594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>248771</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>163607</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BF3513-F1CE-49A3-9248-8BCB8919246B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2646,18 +5431,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0687AB-F581-43AC-953C-7913569361B1}">
-  <dimension ref="B2:R18"/>
+  <sheetPr codeName="Arkusz1"/>
+  <dimension ref="B2:R47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" customWidth="1"/>
     <col min="16" max="16" width="22.42578125" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" customWidth="1"/>
@@ -2665,43 +5452,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="P2" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="P2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="Q4" s="5" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="Q4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2753,34 +5540,34 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>19</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>65</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>227</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1422</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <v>1884</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>7430</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>5890</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>5252</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="3">
         <v>4848</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="3">
         <v>7084</v>
       </c>
       <c r="P6" t="s">
@@ -2797,34 +5584,34 @@
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>0.03</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.02</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.02</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>0.02</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>0.02</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.02</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>0.02</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>0.02</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>0.02</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>0.02</v>
       </c>
       <c r="P7" t="s">
@@ -2841,34 +5628,34 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>20</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>68</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>228</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>1428</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>1892</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>11508</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>27284</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>184596</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>534932</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>1550548</v>
       </c>
       <c r="P8" t="s">
@@ -2885,51 +5672,51 @@
       <c r="B9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>0.05</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>0.04</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>0.04</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>0.04</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>0.04</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.04</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>0.08</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>0.74</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>2.21</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>5.34</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2970,34 +5757,34 @@
       <c r="B15" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>16</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>40</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>88</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="3">
         <v>556</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2007</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>2645</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="3">
         <v>2728</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="3">
         <v>2108</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>2117</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="3">
         <v>1637</v>
       </c>
     </row>
@@ -3005,34 +5792,34 @@
       <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>0.05</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>0.02</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>0.02</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>0.02</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>0.02</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>0.02</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>0.02</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>0.02</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>0.02</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>0.02</v>
       </c>
     </row>
@@ -3040,34 +5827,34 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>40</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>88</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="3">
         <v>664</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>3928</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>7864</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <v>2728</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>43000</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>52984</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="3">
         <v>61576</v>
       </c>
     </row>
@@ -3075,43 +5862,616 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>0.06</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>0.04</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>0.04</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>0.04</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="2">
         <v>0.06</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <v>0.06</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
         <v>0.04</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>0.42</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="2">
         <v>0.52</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="1">
+        <v>6</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9</v>
+      </c>
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <v>12</v>
+      </c>
+      <c r="K27" s="1">
+        <v>13</v>
+      </c>
+      <c r="L27" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3">
+        <v>40</v>
+      </c>
+      <c r="E28" s="3">
+        <v>88</v>
+      </c>
+      <c r="F28" s="3">
+        <v>319</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1150</v>
+      </c>
+      <c r="H28" s="3">
+        <v>996</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1870</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1360</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1330</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3">
+        <v>40</v>
+      </c>
+      <c r="E30" s="3">
+        <v>88</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1596</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1228</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3260</v>
+      </c>
+      <c r="I30" s="3">
+        <v>3796</v>
+      </c>
+      <c r="J30" s="3">
+        <v>171956</v>
+      </c>
+      <c r="K30" s="3">
+        <v>56884</v>
+      </c>
+      <c r="L30" s="3">
+        <v>498324</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1.62</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="L31" s="2">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="1">
+        <v>6</v>
+      </c>
+      <c r="G35" s="1">
+        <v>8</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9</v>
+      </c>
+      <c r="I35" s="1">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1">
+        <v>12</v>
+      </c>
+      <c r="K35" s="1">
+        <v>13</v>
+      </c>
+      <c r="L35" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>16</v>
+      </c>
+      <c r="D36" s="3">
+        <v>40</v>
+      </c>
+      <c r="E36" s="3">
+        <v>88</v>
+      </c>
+      <c r="F36" s="3">
+        <v>976</v>
+      </c>
+      <c r="G36" s="3">
+        <v>856</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1840</v>
+      </c>
+      <c r="I36" s="3">
+        <v>2037</v>
+      </c>
+      <c r="J36" s="3">
+        <v>1703</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1341</v>
+      </c>
+      <c r="L36" s="3">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3">
+        <v>40</v>
+      </c>
+      <c r="E38" s="3">
+        <v>88</v>
+      </c>
+      <c r="F38" s="3">
+        <v>976</v>
+      </c>
+      <c r="G38" s="3">
+        <v>856</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1840</v>
+      </c>
+      <c r="I38" s="3">
+        <v>2584</v>
+      </c>
+      <c r="J38" s="3">
+        <v>163840</v>
+      </c>
+      <c r="K38" s="3">
+        <v>12376</v>
+      </c>
+      <c r="L38" s="3">
+        <v>339064</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1.41</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="L39" s="2">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>4</v>
+      </c>
+      <c r="F43" s="1">
+        <v>6</v>
+      </c>
+      <c r="G43" s="1">
+        <v>8</v>
+      </c>
+      <c r="H43" s="1">
+        <v>9</v>
+      </c>
+      <c r="I43" s="1">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1">
+        <v>12</v>
+      </c>
+      <c r="K43" s="1">
+        <v>13</v>
+      </c>
+      <c r="L43" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>18</v>
+      </c>
+      <c r="D44" s="3">
+        <v>58</v>
+      </c>
+      <c r="E44" s="3">
+        <v>203</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3989</v>
+      </c>
+      <c r="G44" s="3">
+        <v>4442</v>
+      </c>
+      <c r="H44" s="3">
+        <v>4831</v>
+      </c>
+      <c r="I44" s="3">
+        <v>5268</v>
+      </c>
+      <c r="J44" s="3">
+        <v>4099</v>
+      </c>
+      <c r="K44" s="3">
+        <v>3441</v>
+      </c>
+      <c r="L44" s="3">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="L45" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>20</v>
+      </c>
+      <c r="D46" s="3">
+        <v>72</v>
+      </c>
+      <c r="E46" s="3">
+        <v>253</v>
+      </c>
+      <c r="F46" s="3">
+        <v>4905</v>
+      </c>
+      <c r="G46" s="3">
+        <v>25700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>98730</v>
+      </c>
+      <c r="I46" s="3">
+        <v>268306</v>
+      </c>
+      <c r="J46" s="3">
+        <v>7239540</v>
+      </c>
+      <c r="K46" s="3">
+        <v>7228954</v>
+      </c>
+      <c r="L46" s="3">
+        <v>46399187</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="J47" s="2">
+        <v>20.68</v>
+      </c>
+      <c r="K47" s="2">
+        <v>20.89</v>
+      </c>
+      <c r="L47" s="2">
+        <v>141.36000000000001</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B42:L42"/>
     <mergeCell ref="B4:L4"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B26:L26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
